--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr3_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr3_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="15.24609375" customWidth="true"/>
-    <col min="4" max="4" width="16.24609375" customWidth="true"/>
+    <col min="3" max="3" width="14.24609375" customWidth="true"/>
+    <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.77734375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="15.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.27967580216864041</v>
+        <v>0.20987409182707575</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28325067490005779</v>
+        <v>0.22705007009645178</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.00063740579124775586</v>
+        <v>-0.0043603655387924245</v>
       </c>
       <c r="E3" s="0">
-        <v>-2.442414355724286e-05</v>
+        <v>0.00048018766910851081</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00085803543703422732</v>
+        <v>-0.00058639824173306804</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00016428364202917639</v>
+        <v>0.00035246114607500066</v>
       </c>
       <c r="H3" s="0">
-        <v>1.7262770527966917e-06</v>
+        <v>9.1971806863660396e-06</v>
       </c>
       <c r="I3" s="0">
-        <v>-2.0240341528189267e-05</v>
+        <v>-7.1473633188417793e-05</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.00052276033654075071</v>
+        <v>0.00083612465742957665</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.33076106526406807</v>
+        <v>0.2674352513228172</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0093470565121043132</v>
+        <v>0.025165699908183885</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-1.2495614661572925e-05</v>
+        <v>-1.5665268141616953e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-7.5895403227407509e-05</v>
+        <v>1.683765911707138e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>4.5659721019908637e-06</v>
+        <v>0.00020130862012710494</v>
       </c>
       <c r="I4" s="0">
-        <v>-1.2169158626194137e-06</v>
+        <v>-0.003900383297064092</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00037850225133241188</v>
+        <v>0.0026524781552843459</v>
       </c>
       <c r="K4" s="0">
-        <v>5.5262273246148297e-05</v>
+        <v>2.1770954653888008e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.36186105068740143</v>
+        <v>0.30842929837502198</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0029057569156678413</v>
+        <v>-0.0022080110396503717</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00016727195901370046</v>
+        <v>-0.00072371553139758587</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00054431552097090549</v>
+        <v>0.0058930401761294101</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00017287963032173179</v>
+        <v>-0.0010871759122976997</v>
       </c>
       <c r="H5" s="0">
-        <v>1.7632906047580973e-05</v>
+        <v>0.00046714833142397021</v>
       </c>
       <c r="I5" s="0">
-        <v>-9.3328700411764894e-05</v>
+        <v>-0.00029210237822174676</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0070866386788594471</v>
+        <v>-0.0033328071887520627</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.30817983827137385</v>
+        <v>0.34197064366921848</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.0061307172560199023</v>
+        <v>-0.011196011906452984</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>7.0788518305602607e-06</v>
+        <v>-4.3287468739846187e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-5.2164984696949967e-05</v>
+        <v>0.00033407348093307808</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-8.0167384590106784e-05</v>
+        <v>0.0003307612850701848</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.00068901798430389533</v>
+        <v>-0.0055430898801849381</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>1.1662484939944928e-05</v>
+        <v>0.00010979114601289419</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.27653233650552345</v>
+        <v>0.32513821833669254</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0026156231692258764</v>
+        <v>-0.008222617898499384</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00097291743036163891</v>
+        <v>-0.0015276659596678206</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00064823850358044003</v>
+        <v>0.0037991809913163668</v>
       </c>
       <c r="G7" s="0">
-        <v>-6.8250697967544701e-05</v>
+        <v>0.0031289954022183579</v>
       </c>
       <c r="H7" s="0">
-        <v>-1.8630725226968478e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-2.620850571151398e-05</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0075383429657233103</v>
+        <v>0.0097383073187106151</v>
       </c>
     </row>
     <row r="8">
